--- a/formatexcel/absensi-isyana.xlsx
+++ b/formatexcel/absensi-isyana.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -433,7 +433,7 @@
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.70833333333333337</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -453,7 +453,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="F3" s="1">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
